--- a/artfynd/Blåbergssjön artfynd.xlsx
+++ b/artfynd/Blåbergssjön artfynd.xlsx
@@ -1536,32 +1536,32 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>126380528</v>
+        <v>126380529</v>
       </c>
       <c r="B10" t="n">
-        <v>79598</v>
+        <v>92535</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1571,10 +1571,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>686122</v>
+        <v>686123</v>
       </c>
       <c r="R10" t="n">
-        <v>7095399</v>
+        <v>7095360</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1617,21 +1617,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1648,32 +1633,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>126380529</v>
+        <v>126380528</v>
       </c>
       <c r="B11" t="n">
-        <v>92535</v>
+        <v>79598</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1683,10 +1668,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>686123</v>
+        <v>686122</v>
       </c>
       <c r="R11" t="n">
-        <v>7095360</v>
+        <v>7095399</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1729,6 +1714,21 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">

--- a/artfynd/Blåbergssjön artfynd.xlsx
+++ b/artfynd/Blåbergssjön artfynd.xlsx
@@ -1536,32 +1536,32 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>126380529</v>
+        <v>126380528</v>
       </c>
       <c r="B10" t="n">
-        <v>92535</v>
+        <v>79598</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1571,10 +1571,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>686123</v>
+        <v>686122</v>
       </c>
       <c r="R10" t="n">
-        <v>7095360</v>
+        <v>7095399</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1617,6 +1617,21 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1633,32 +1648,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>126380528</v>
+        <v>126380529</v>
       </c>
       <c r="B11" t="n">
-        <v>79598</v>
+        <v>92535</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1668,10 +1683,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>686122</v>
+        <v>686123</v>
       </c>
       <c r="R11" t="n">
-        <v>7095399</v>
+        <v>7095360</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1714,21 +1729,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1954,32 +1954,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>56824774</v>
+        <v>56824765</v>
       </c>
       <c r="B14" t="n">
-        <v>92535</v>
+        <v>5492</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>101410</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>686316</v>
+        <v>686273</v>
       </c>
       <c r="R14" t="n">
-        <v>7095128</v>
+        <v>7095472</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2039,6 +2039,11 @@
       <c r="AI14" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>gammal tall</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2056,32 +2061,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>56824765</v>
+        <v>56824774</v>
       </c>
       <c r="B15" t="n">
-        <v>5492</v>
+        <v>92535</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>101410</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2091,10 +2096,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>686273</v>
+        <v>686316</v>
       </c>
       <c r="R15" t="n">
-        <v>7095472</v>
+        <v>7095128</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2141,11 +2146,6 @@
       <c r="AI15" t="inlineStr">
         <is>
           <t>barrnaturskog</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>gammal tall</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
